--- a/RoboticEnterpriseFramework/Data/Config.xlsx
+++ b/RoboticEnterpriseFramework/Data/Config.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexandra.veizu\Documents\Reframework_update_UiPath_Services\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Main\UIPath_study\RoboticEnterpriseFramework\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BE7DFF5-5AFC-4110-8461-609B0BDD5551}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07D90C7E-7022-462F-B00B-08F7519571FA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1896" yWindow="2208" windowWidth="14916" windowHeight="8964" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="34">
   <si>
     <t>Name</t>
   </si>
@@ -123,6 +123,14 @@
   <si>
     <t>OrchestratorAssetFolder</t>
   </si>
+  <si>
+    <t>Default</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ACME_login</t>
+    <phoneticPr fontId="2"/>
+  </si>
 </sst>
 </file>
 
@@ -185,7 +193,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -201,7 +209,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -500,15 +508,15 @@
   <dimension ref="A1:Z997"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="43.5703125" customWidth="1"/>
+    <col min="1" max="1" width="43.5546875" customWidth="1"/>
     <col min="2" max="2" width="43" customWidth="1"/>
-    <col min="3" max="3" width="81.42578125" customWidth="1"/>
-    <col min="4" max="26" width="8.7109375" customWidth="1"/>
+    <col min="3" max="3" width="81.44140625" customWidth="1"/>
+    <col min="4" max="26" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="14.25" customHeight="1">
@@ -557,7 +565,7 @@
       </c>
     </row>
     <row r="3" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="4" spans="1:26" ht="30">
+    <row r="4" spans="1:26" ht="28.8">
       <c r="A4" t="s">
         <v>20</v>
       </c>
@@ -1574,12 +1582,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="41" customWidth="1"/>
     <col min="2" max="2" width="51" customWidth="1"/>
-    <col min="3" max="3" width="75.42578125" customWidth="1"/>
-    <col min="4" max="26" width="8.7109375" customWidth="1"/>
+    <col min="3" max="3" width="75.44140625" customWidth="1"/>
+    <col min="4" max="26" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="14.25" customHeight="1">
@@ -1616,7 +1624,7 @@
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
     </row>
-    <row r="2" spans="1:26" ht="30">
+    <row r="2" spans="1:26" ht="28.8">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -2680,18 +2688,18 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:Z1000"/>
+  <dimension ref="A1:Z999"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="A2:C2"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="31.85546875" customWidth="1"/>
-    <col min="2" max="2" width="30.140625" customWidth="1"/>
-    <col min="3" max="3" width="60.28515625" customWidth="1"/>
-    <col min="4" max="26" width="65.42578125" customWidth="1"/>
+    <col min="1" max="1" width="31.88671875" customWidth="1"/>
+    <col min="2" max="2" width="30.109375" customWidth="1"/>
+    <col min="3" max="3" width="60.33203125" customWidth="1"/>
+    <col min="4" max="26" width="65.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="14.25" customHeight="1">
@@ -2730,8 +2738,20 @@
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
     </row>
-    <row r="2" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="3" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="2" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A3" s="2"/>
+    </row>
     <row r="4" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="5" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="6" spans="1:26" ht="14.25" customHeight="1"/>
@@ -3728,9 +3748,9 @@
     <row r="997" ht="14.25" customHeight="1"/>
     <row r="998" ht="14.25" customHeight="1"/>
     <row r="999" ht="14.25" customHeight="1"/>
-    <row r="1000" ht="14.25" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/RoboticEnterpriseFramework/Data/Config.xlsx
+++ b/RoboticEnterpriseFramework/Data/Config.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Main\UIPath_study\RoboticEnterpriseFramework\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexandra.veizu\Documents\Reframework_update_UiPath_Services\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07D90C7E-7022-462F-B00B-08F7519571FA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BE7DFF5-5AFC-4110-8461-609B0BDD5551}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1896" yWindow="2208" windowWidth="14916" windowHeight="8964" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="32">
   <si>
     <t>Name</t>
   </si>
@@ -123,14 +123,6 @@
   <si>
     <t>OrchestratorAssetFolder</t>
   </si>
-  <si>
-    <t>Default</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ACME_login</t>
-    <phoneticPr fontId="2"/>
-  </si>
 </sst>
 </file>
 
@@ -193,7 +185,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -209,7 +201,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -508,15 +500,15 @@
   <dimension ref="A1:Z997"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="43.5546875" customWidth="1"/>
+    <col min="1" max="1" width="43.5703125" customWidth="1"/>
     <col min="2" max="2" width="43" customWidth="1"/>
-    <col min="3" max="3" width="81.44140625" customWidth="1"/>
-    <col min="4" max="26" width="8.6640625" customWidth="1"/>
+    <col min="3" max="3" width="81.42578125" customWidth="1"/>
+    <col min="4" max="26" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="14.25" customHeight="1">
@@ -565,7 +557,7 @@
       </c>
     </row>
     <row r="3" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="4" spans="1:26" ht="28.8">
+    <row r="4" spans="1:26" ht="30">
       <c r="A4" t="s">
         <v>20</v>
       </c>
@@ -1582,12 +1574,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="41" customWidth="1"/>
     <col min="2" max="2" width="51" customWidth="1"/>
-    <col min="3" max="3" width="75.44140625" customWidth="1"/>
-    <col min="4" max="26" width="8.6640625" customWidth="1"/>
+    <col min="3" max="3" width="75.42578125" customWidth="1"/>
+    <col min="4" max="26" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="14.25" customHeight="1">
@@ -1624,7 +1616,7 @@
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
     </row>
-    <row r="2" spans="1:26" ht="28.8">
+    <row r="2" spans="1:26" ht="30">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -2688,18 +2680,18 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:Z999"/>
+  <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="31.88671875" customWidth="1"/>
-    <col min="2" max="2" width="30.109375" customWidth="1"/>
-    <col min="3" max="3" width="60.33203125" customWidth="1"/>
-    <col min="4" max="26" width="65.44140625" customWidth="1"/>
+    <col min="1" max="1" width="31.85546875" customWidth="1"/>
+    <col min="2" max="2" width="30.140625" customWidth="1"/>
+    <col min="3" max="3" width="60.28515625" customWidth="1"/>
+    <col min="4" max="26" width="65.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="14.25" customHeight="1">
@@ -2738,20 +2730,8 @@
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
     </row>
-    <row r="2" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A2" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="3" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A3" s="2"/>
-    </row>
+    <row r="2" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="3" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="4" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="5" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="6" spans="1:26" ht="14.25" customHeight="1"/>
@@ -3748,9 +3728,9 @@
     <row r="997" ht="14.25" customHeight="1"/>
     <row r="998" ht="14.25" customHeight="1"/>
     <row r="999" ht="14.25" customHeight="1"/>
+    <row r="1000" ht="14.25" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/RoboticEnterpriseFramework/Data/Config.xlsx
+++ b/RoboticEnterpriseFramework/Data/Config.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexandra.veizu\Documents\Reframework_update_UiPath_Services\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Main\UIPath_study\RoboticEnterpriseFramework\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BE7DFF5-5AFC-4110-8461-609B0BDD5551}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8200E49-A16F-4894-BBB4-9A8E9DAC2CC6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6480" yWindow="3000" windowWidth="17256" windowHeight="8964" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="36">
   <si>
     <t>Name</t>
   </si>
@@ -123,6 +123,20 @@
   <si>
     <t>OrchestratorAssetFolder</t>
   </si>
+  <si>
+    <t>url_acme</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>https://acme-test.uipath.com/login</t>
+  </si>
+  <si>
+    <t>url_sha1</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>http://www.sha1-online.com/</t>
+  </si>
 </sst>
 </file>
 
@@ -139,6 +153,7 @@
       <sz val="14"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="6"/>
@@ -173,7 +188,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -183,9 +198,11 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -201,7 +218,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -503,12 +520,12 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="43.5703125" customWidth="1"/>
+    <col min="1" max="1" width="43.5546875" customWidth="1"/>
     <col min="2" max="2" width="43" customWidth="1"/>
-    <col min="3" max="3" width="81.42578125" customWidth="1"/>
-    <col min="4" max="26" width="8.7109375" customWidth="1"/>
+    <col min="3" max="3" width="81.44140625" customWidth="1"/>
+    <col min="4" max="26" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="14.25" customHeight="1">
@@ -557,7 +574,7 @@
       </c>
     </row>
     <row r="3" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="4" spans="1:26" ht="30">
+    <row r="4" spans="1:26" ht="28.8">
       <c r="A4" t="s">
         <v>20</v>
       </c>
@@ -1572,14 +1589,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Z987"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="41" customWidth="1"/>
     <col min="2" max="2" width="51" customWidth="1"/>
-    <col min="3" max="3" width="75.42578125" customWidth="1"/>
-    <col min="4" max="26" width="8.7109375" customWidth="1"/>
+    <col min="3" max="3" width="75.44140625" customWidth="1"/>
+    <col min="4" max="26" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="14.25" customHeight="1">
@@ -1616,7 +1635,7 @@
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
     </row>
-    <row r="2" spans="1:26" ht="30">
+    <row r="2" spans="1:26" ht="28.8">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -1696,8 +1715,22 @@
       </c>
     </row>
     <row r="11" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="12" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="13" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="12" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A12" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A13" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
     <row r="14" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="15" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="16" spans="1:26" ht="14.25" customHeight="1"/>
@@ -2682,16 +2715,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="31.85546875" customWidth="1"/>
-    <col min="2" max="2" width="30.140625" customWidth="1"/>
-    <col min="3" max="3" width="60.28515625" customWidth="1"/>
-    <col min="4" max="26" width="65.42578125" customWidth="1"/>
+    <col min="1" max="1" width="31.88671875" customWidth="1"/>
+    <col min="2" max="2" width="30.109375" customWidth="1"/>
+    <col min="3" max="3" width="60.33203125" customWidth="1"/>
+    <col min="4" max="26" width="65.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="14.25" customHeight="1">

--- a/RoboticEnterpriseFramework/Data/Config.xlsx
+++ b/RoboticEnterpriseFramework/Data/Config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Main\UIPath_study\RoboticEnterpriseFramework\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8200E49-A16F-4894-BBB4-9A8E9DAC2CC6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA1A179A-7B32-4D34-8309-CC399FB51C15}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6480" yWindow="3000" windowWidth="17256" windowHeight="8964" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="972" yWindow="1620" windowWidth="17928" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="33">
   <si>
     <t>Name</t>
   </si>
@@ -90,19 +90,7 @@
     <t>Framework</t>
   </si>
   <si>
-    <t>ProcessABCQueue</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Orchestrator queue Name. The value must match with the queue name defined on Orchestrator.</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>Logging field which allows grouping of log data of two or more subprocesses under the same business process name</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>OrchestratorQueueName</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -188,10 +176,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -514,10 +501,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z997"/>
+  <dimension ref="A1:Z995"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -562,29 +549,19 @@
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
     </row>
-    <row r="2" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A2" s="2" t="s">
-        <v>25</v>
+    <row r="2" spans="1:26" ht="28.8">
+      <c r="A2" t="s">
+        <v>20</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>22</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="4" spans="1:26" ht="28.8">
-      <c r="A4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
+    <row r="4" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="5" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="6" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="7" spans="1:26" ht="14.25" customHeight="1"/>
@@ -1576,8 +1553,6 @@
     <row r="993" ht="14.25" customHeight="1"/>
     <row r="994" ht="14.25" customHeight="1"/>
     <row r="995" ht="14.25" customHeight="1"/>
-    <row r="996" ht="14.25" customHeight="1"/>
-    <row r="997" ht="14.25" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1589,7 +1564,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Z987"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
@@ -1642,8 +1617,8 @@
       <c r="B2">
         <v>0</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>26</v>
+      <c r="C2" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="14.25" customHeight="1"/>
@@ -1667,7 +1642,7 @@
         <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="14.25" customHeight="1">
@@ -1689,7 +1664,7 @@
         <v>15</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="14.25" customHeight="1">
@@ -1700,7 +1675,7 @@
         <v>17</v>
       </c>
       <c r="C9" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="14.25" customHeight="1">
@@ -1711,24 +1686,24 @@
         <v>19</v>
       </c>
       <c r="C10" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="12" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A12" s="5" t="s">
-        <v>32</v>
+      <c r="A12" s="4" t="s">
+        <v>29</v>
       </c>
-      <c r="B12" s="6" t="s">
-        <v>33</v>
+      <c r="B12" s="5" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A13" s="5" t="s">
-        <v>34</v>
+      <c r="A13" s="4" t="s">
+        <v>31</v>
       </c>
-      <c r="B13" s="6" t="s">
-        <v>35</v>
+      <c r="B13" s="5" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:26" ht="14.25" customHeight="1"/>
@@ -2735,7 +2710,7 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>4</v>
